--- a/Data.xlsx
+++ b/Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/70a861741da80355/Coderschool/Git/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/70a861741da80355/GitHud Turtorial/Data-Analysis-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2086B9C6-40ED-4EE5-965B-A11262249B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{2086B9C6-40ED-4EE5-965B-A11262249B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE0F4E22-4CEE-47BC-8FE4-7C126C8F4CED}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1DDD1F0E-5866-44C0-A390-C92CFC4A7790}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
   <si>
     <t>Grade</t>
   </si>
@@ -604,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B014BCA2-1584-43A1-B581-C3A53337E66A}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -664,55 +664,55 @@
         <v>7</v>
       </c>
       <c r="B3" s="7">
-        <v>13.95</v>
+        <v>13.29</v>
       </c>
       <c r="C3" s="8">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="D3" s="8">
-        <v>805.9</v>
+        <v>789.63</v>
       </c>
       <c r="E3" s="8">
-        <v>1068</v>
+        <v>1045</v>
       </c>
       <c r="F3" s="8">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="7">
-        <v>13.29</v>
-      </c>
-      <c r="C4" s="8">
-        <v>235</v>
-      </c>
-      <c r="D4" s="8">
-        <v>789.63</v>
-      </c>
-      <c r="E4" s="8">
-        <v>1045</v>
-      </c>
-      <c r="F4" s="8">
-        <v>210</v>
-      </c>
-      <c r="G4" s="6"/>
+      <c r="A4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="10">
+        <v>20.43</v>
+      </c>
+      <c r="C4" s="11">
+        <v>302</v>
+      </c>
+      <c r="D4" s="11">
+        <v>783.84</v>
+      </c>
+      <c r="E4" s="11">
+        <v>1005</v>
+      </c>
+      <c r="F4" s="11">
+        <v>205</v>
+      </c>
+      <c r="G4" s="12"/>
     </row>
     <row r="5" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="10">
-        <v>20.43</v>
+        <v>15.65</v>
       </c>
       <c r="C5" s="11">
-        <v>302</v>
+        <v>255</v>
       </c>
       <c r="D5" s="11">
-        <v>783.84</v>
+        <v>822.46</v>
       </c>
       <c r="E5" s="11">
         <v>1005</v>
@@ -727,19 +727,19 @@
         <v>8</v>
       </c>
       <c r="B6" s="10">
-        <v>15.65</v>
+        <v>17.32</v>
       </c>
       <c r="C6" s="11">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="D6" s="11">
-        <v>822.46</v>
+        <v>798.42</v>
       </c>
       <c r="E6" s="11">
         <v>1005</v>
       </c>
       <c r="F6" s="11">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="G6" s="12"/>
     </row>
@@ -748,16 +748,16 @@
         <v>8</v>
       </c>
       <c r="B7" s="10">
-        <v>17.32</v>
+        <v>13.92</v>
       </c>
       <c r="C7" s="11">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="D7" s="11">
-        <v>798.42</v>
+        <v>786.97</v>
       </c>
       <c r="E7" s="11">
-        <v>1005</v>
+        <v>1030</v>
       </c>
       <c r="F7" s="11">
         <v>210</v>
@@ -765,145 +765,151 @@
       <c r="G7" s="12"/>
     </row>
     <row r="8" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="10">
-        <v>13.92</v>
-      </c>
-      <c r="C8" s="11">
-        <v>255</v>
-      </c>
-      <c r="D8" s="11">
-        <v>786.97</v>
-      </c>
-      <c r="E8" s="11">
-        <v>1030</v>
-      </c>
-      <c r="F8" s="11">
-        <v>210</v>
-      </c>
-      <c r="G8" s="12"/>
+      <c r="A8" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="14">
+        <v>26.21</v>
+      </c>
+      <c r="C8" s="15">
+        <v>335</v>
+      </c>
+      <c r="D8" s="15">
+        <v>786.38</v>
+      </c>
+      <c r="E8" s="15">
+        <v>1000</v>
+      </c>
+      <c r="F8" s="15">
+        <v>195</v>
+      </c>
+      <c r="G8" s="16"/>
     </row>
     <row r="9" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="14">
-        <v>26.21</v>
+        <v>16.38</v>
       </c>
       <c r="C9" s="15">
-        <v>335</v>
+        <v>291</v>
       </c>
       <c r="D9" s="15">
-        <v>786.38</v>
+        <v>780.35</v>
       </c>
       <c r="E9" s="15">
-        <v>1000</v>
+        <v>1005</v>
       </c>
       <c r="F9" s="15">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="G9" s="16"/>
     </row>
     <row r="10" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="14">
-        <v>16.649999999999999</v>
-      </c>
-      <c r="C10" s="15">
-        <v>302</v>
-      </c>
-      <c r="D10" s="15">
-        <v>783.84</v>
-      </c>
-      <c r="E10" s="15">
-        <v>1005</v>
-      </c>
-      <c r="F10" s="15">
-        <v>205</v>
-      </c>
-      <c r="G10" s="16"/>
-    </row>
-    <row r="11" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="14">
-        <v>16.649999999999999</v>
-      </c>
-      <c r="C11" s="15">
-        <v>303</v>
-      </c>
-      <c r="D11" s="15">
-        <v>783.02</v>
-      </c>
-      <c r="E11" s="15">
-        <v>1005</v>
-      </c>
-      <c r="F11" s="15">
-        <v>205</v>
-      </c>
-      <c r="G11" s="16"/>
+      <c r="A10" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="18">
+        <v>61.02</v>
+      </c>
+      <c r="C10" s="19">
+        <v>426</v>
+      </c>
+      <c r="D10" s="19">
+        <v>793.17</v>
+      </c>
+      <c r="E10" s="19">
+        <v>1052</v>
+      </c>
+      <c r="F10" s="19">
+        <v>144.4</v>
+      </c>
+      <c r="G10" s="19">
+        <v>4.26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="18">
+        <v>65.069999999999993</v>
+      </c>
+      <c r="C11" s="19">
+        <v>426</v>
+      </c>
+      <c r="D11" s="19">
+        <v>747.93</v>
+      </c>
+      <c r="E11" s="19">
+        <v>1052</v>
+      </c>
+      <c r="F11" s="19">
+        <v>162.44999999999999</v>
+      </c>
+      <c r="G11" s="19">
+        <v>5.1100000000000003</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="14">
-        <v>16.38</v>
-      </c>
-      <c r="C12" s="15">
-        <v>291</v>
-      </c>
-      <c r="D12" s="15">
-        <v>780.35</v>
-      </c>
-      <c r="E12" s="15">
-        <v>1005</v>
-      </c>
-      <c r="F12" s="15">
-        <v>210</v>
-      </c>
-      <c r="G12" s="16"/>
+      <c r="A12" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="18">
+        <v>63.76</v>
+      </c>
+      <c r="C12" s="19">
+        <v>380</v>
+      </c>
+      <c r="D12" s="19">
+        <v>785.73</v>
+      </c>
+      <c r="E12" s="19">
+        <v>1052</v>
+      </c>
+      <c r="F12" s="19">
+        <v>162.44999999999999</v>
+      </c>
+      <c r="G12" s="19">
+        <v>4.37</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="17" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="18">
-        <v>61.02</v>
+        <v>55.63</v>
       </c>
       <c r="C13" s="19">
-        <v>426</v>
+        <v>380</v>
       </c>
       <c r="D13" s="19">
-        <v>793.17</v>
+        <v>845.42</v>
       </c>
       <c r="E13" s="19">
-        <v>1052</v>
+        <v>987</v>
       </c>
       <c r="F13" s="19">
-        <v>144.4</v>
+        <v>162.44999999999999</v>
       </c>
       <c r="G13" s="19">
-        <v>4.26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="20" t="s">
+        <v>4.5599999999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="17" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="18">
-        <v>65.069999999999993</v>
+        <v>50.17</v>
       </c>
       <c r="C14" s="19">
-        <v>426</v>
+        <v>360</v>
       </c>
       <c r="D14" s="19">
-        <v>747.93</v>
+        <v>802.17</v>
       </c>
       <c r="E14" s="19">
         <v>1052</v>
@@ -912,75 +918,6 @@
         <v>162.44999999999999</v>
       </c>
       <c r="G14" s="19">
-        <v>5.1100000000000003</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="18">
-        <v>63.76</v>
-      </c>
-      <c r="C15" s="19">
-        <v>380</v>
-      </c>
-      <c r="D15" s="19">
-        <v>785.73</v>
-      </c>
-      <c r="E15" s="19">
-        <v>1052</v>
-      </c>
-      <c r="F15" s="19">
-        <v>162.44999999999999</v>
-      </c>
-      <c r="G15" s="19">
-        <v>4.37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="18">
-        <v>55.63</v>
-      </c>
-      <c r="C16" s="19">
-        <v>380</v>
-      </c>
-      <c r="D16" s="19">
-        <v>845.42</v>
-      </c>
-      <c r="E16" s="19">
-        <v>987</v>
-      </c>
-      <c r="F16" s="19">
-        <v>162.44999999999999</v>
-      </c>
-      <c r="G16" s="19">
-        <v>4.5599999999999996</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="18">
-        <v>50.17</v>
-      </c>
-      <c r="C17" s="19">
-        <v>360</v>
-      </c>
-      <c r="D17" s="19">
-        <v>802.17</v>
-      </c>
-      <c r="E17" s="19">
-        <v>1052</v>
-      </c>
-      <c r="F17" s="19">
-        <v>162.44999999999999</v>
-      </c>
-      <c r="G17" s="19">
         <v>4.32</v>
       </c>
     </row>
